--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Il12rb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H2">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3922993333333333</v>
+        <v>0.3754836666666666</v>
       </c>
       <c r="N2">
-        <v>1.176898</v>
+        <v>1.126451</v>
       </c>
       <c r="O2">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="P2">
-        <v>0.1197958591217032</v>
+        <v>0.1282941949732911</v>
       </c>
       <c r="Q2">
-        <v>0.5089764779875555</v>
+        <v>0.007235945740333333</v>
       </c>
       <c r="R2">
-        <v>4.580788301888</v>
+        <v>0.065123511663</v>
       </c>
       <c r="S2">
-        <v>0.1197958591217032</v>
+        <v>0.001207571350374768</v>
       </c>
       <c r="T2">
-        <v>0.1197958591217032</v>
+        <v>0.001207571350374768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H3">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.633389</v>
       </c>
       <c r="O3">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="P3">
-        <v>0.1662618498246574</v>
+        <v>0.1860305746394907</v>
       </c>
       <c r="Q3">
-        <v>0.7063964595093333</v>
+        <v>0.010492346473</v>
       </c>
       <c r="R3">
-        <v>6.357568135584</v>
+        <v>0.094431118257</v>
       </c>
       <c r="S3">
-        <v>0.1662618498246574</v>
+        <v>0.001751016032137476</v>
       </c>
       <c r="T3">
-        <v>0.1662618498246574</v>
+        <v>0.001751016032137476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H4">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4551463333333333</v>
+        <v>0.9905483333333333</v>
       </c>
       <c r="N4">
-        <v>1.365439</v>
+        <v>2.971645</v>
       </c>
       <c r="O4">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="P4">
-        <v>0.1389873532653461</v>
+        <v>0.3384477469693805</v>
       </c>
       <c r="Q4">
-        <v>0.5905153489315554</v>
+        <v>0.01908885693166667</v>
       </c>
       <c r="R4">
-        <v>5.314638140383999</v>
+        <v>0.171799712385</v>
       </c>
       <c r="S4">
-        <v>0.1389873532653461</v>
+        <v>0.003185645328100758</v>
       </c>
       <c r="T4">
-        <v>0.1389873532653461</v>
+        <v>0.003185645328100758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H5">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.882823333333333</v>
+        <v>1.016244333333333</v>
       </c>
       <c r="N5">
-        <v>5.64847</v>
+        <v>3.048733</v>
       </c>
       <c r="O5">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="P5">
-        <v>0.5749549377882933</v>
+        <v>0.3472274834178377</v>
       </c>
       <c r="Q5">
-        <v>2.442810138702222</v>
+        <v>0.01958404454766667</v>
       </c>
       <c r="R5">
-        <v>21.98529124832</v>
+        <v>0.176256400929</v>
       </c>
       <c r="S5">
-        <v>0.5749549377882933</v>
+        <v>0.003268284750727833</v>
       </c>
       <c r="T5">
-        <v>0.5749549377882933</v>
+        <v>0.003268284750727833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.028109</v>
+      </c>
+      <c r="H6">
+        <v>6.084327</v>
+      </c>
+      <c r="I6">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J6">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3754836666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.126451</v>
+      </c>
+      <c r="O6">
+        <v>0.1282941949732911</v>
+      </c>
+      <c r="P6">
+        <v>0.1282941949732911</v>
+      </c>
+      <c r="Q6">
+        <v>0.7615218037196666</v>
+      </c>
+      <c r="R6">
+        <v>6.853696233476999</v>
+      </c>
+      <c r="S6">
+        <v>0.1270866236229163</v>
+      </c>
+      <c r="T6">
+        <v>0.1270866236229163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.028109</v>
+      </c>
+      <c r="H7">
+        <v>6.084327</v>
+      </c>
+      <c r="I7">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J7">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.544463</v>
+      </c>
+      <c r="N7">
+        <v>1.633389</v>
+      </c>
+      <c r="O7">
+        <v>0.1860305746394907</v>
+      </c>
+      <c r="P7">
+        <v>0.1860305746394907</v>
+      </c>
+      <c r="Q7">
+        <v>1.104230310467</v>
+      </c>
+      <c r="R7">
+        <v>9.938072794203</v>
+      </c>
+      <c r="S7">
+        <v>0.1842795586073533</v>
+      </c>
+      <c r="T7">
+        <v>0.1842795586073533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.028109</v>
+      </c>
+      <c r="H8">
+        <v>6.084327</v>
+      </c>
+      <c r="I8">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J8">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9905483333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.971645</v>
+      </c>
+      <c r="O8">
+        <v>0.3384477469693805</v>
+      </c>
+      <c r="P8">
+        <v>0.3384477469693805</v>
+      </c>
+      <c r="Q8">
+        <v>2.008939989768333</v>
+      </c>
+      <c r="R8">
+        <v>18.080459907915</v>
+      </c>
+      <c r="S8">
+        <v>0.3352621016412797</v>
+      </c>
+      <c r="T8">
+        <v>0.3352621016412797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.028109</v>
+      </c>
+      <c r="H9">
+        <v>6.084327</v>
+      </c>
+      <c r="I9">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J9">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.016244333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.048733</v>
+      </c>
+      <c r="O9">
+        <v>0.3472274834178377</v>
+      </c>
+      <c r="P9">
+        <v>0.3472274834178377</v>
+      </c>
+      <c r="Q9">
+        <v>2.061054278632334</v>
+      </c>
+      <c r="R9">
+        <v>18.549488507691</v>
+      </c>
+      <c r="S9">
+        <v>0.3439591986671098</v>
+      </c>
+      <c r="T9">
+        <v>0.3439591986671099</v>
       </c>
     </row>
   </sheetData>
